--- a/biology/Zoologie/Gobie_à_taches_noires/Gobie_à_taches_noires.xlsx
+++ b/biology/Zoologie/Gobie_à_taches_noires/Gobie_à_taches_noires.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Gobie_%C3%A0_taches_noires</t>
+          <t>Gobie_à_taches_noires</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Neogobius melanostomus
 Le Gobie à taches noires (Neogobius melanostomus), aussi appelé Gobie arrondi, est une espèce de poissons d'eau douce à saumâtre de la famille des Gobiidés.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Gobie_%C3%A0_taches_noires</t>
+          <t>Gobie_à_taches_noires</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,9 +524,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Nommé ainsi pour les petites taches noires recouvrant son corps et pour sa nageoire caudale arrondie. Il peut mesurer jusqu'à 24,6 cm[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Nommé ainsi pour les petites taches noires recouvrant son corps et pour sa nageoire caudale arrondie. Il peut mesurer jusqu'à 24,6 cm.
 </t>
         </is>
       </c>
@@ -525,7 +539,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Gobie_%C3%A0_taches_noires</t>
+          <t>Gobie_à_taches_noires</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -543,9 +557,11 @@
           <t>Répartition géographique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Il se retrouve en Europe de l'Est et en Asie, dans les pays suivants : Bulgarie, Géorgie, Moldavie, Roumanie, Russie, Turquie, Turkménistan, Kazakhstan, Iran, Azerbaïdjan et Ukraine[2], et les mers suivantes : mer d'Azov, mer Noire, mer Caspienne. Plus récemment, on le trouve aussi en Europe occidentale : Allemagne, Pays-Bas, Belgique, nord-est de la France[3],[4].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il se retrouve en Europe de l'Est et en Asie, dans les pays suivants : Bulgarie, Géorgie, Moldavie, Roumanie, Russie, Turquie, Turkménistan, Kazakhstan, Iran, Azerbaïdjan et Ukraine, et les mers suivantes : mer d'Azov, mer Noire, mer Caspienne. Plus récemment, on le trouve aussi en Europe occidentale : Allemagne, Pays-Bas, Belgique, nord-est de la France,.
 </t>
         </is>
       </c>
@@ -556,7 +572,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Gobie_%C3%A0_taches_noires</t>
+          <t>Gobie_à_taches_noires</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -574,7 +590,9 @@
           <t>Espèce aquatique envahissante</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">En Amérique du Nord, le Gobie à taches noires s’est répandu rapidement au Canada (fleuve Saint-Laurent) et dans les Grands Lacs depuis qu’il y a été découvert en 1990. Ce poisson exotique entre en forte compétition avec les autres espèces indigènes et peut rapidement peupler un plan d’eau. En plus de dominer dans l’habitat, il se nourrit également des œufs et des jeunes de poissons indigènes. Cette espèce envahissante a probablement été introduite dans les Grands Lacs et ailleurs par de déballastage des eaux de mer des navires transocéaniques.
 </t>
@@ -587,7 +605,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Gobie_%C3%A0_taches_noires</t>
+          <t>Gobie_à_taches_noires</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -605,7 +623,9 @@
           <t>Salinité</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Le Gobie à taches noires est un poisson euryhalin : il vit autant en eau douce qu'en eau salée, il peut supporter des salinités allant au moins jusqu'à 36,9 ‰.
 </t>
